--- a/HRMS/MstPositionCategoryApplies.xlsx
+++ b/HRMS/MstPositionCategoryApplies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Table Name - MstPositionCategoryApplies</t>
   </si>
@@ -65,13 +65,22 @@
   </si>
   <si>
     <t>nvarchar(120)</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take PositionCategoryNameEng as String.</t>
+  </si>
+  <si>
+    <t>Take PositionCategoryNameHin as String.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +92,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -122,14 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -139,6 +148,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,106 +472,112 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/MstPositionCategoryApplies.xlsx
+++ b/HRMS/MstPositionCategoryApplies.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - MstPositionCategoryApplies</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Take PositionCategoryNameHin as String.</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में पद श्रेणी के लागू होने का विवरण  है।</t>
   </si>
 </sst>
 </file>
@@ -148,14 +148,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,51 +476,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,17 +548,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,17 +566,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
